--- a/INTLINE/data/144/SCB/SnabbStatAM0401.xlsx
+++ b/INTLINE/data/144/SCB/SnabbStatAM0401.xlsx
@@ -19,7 +19,7 @@
     <x:author>www.statistikdatabasen.scb.se</x:author>
   </x:authors>
   <x:commentList>
-    <x:comment ref="DG3" authorId="0">
+    <x:comment ref="DI3" authorId="0">
       <x:text>
         <x:r>
           <x:rPr>
@@ -29,15 +29,21 @@
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
           </x:rPr>
-          <x:t xml:space="preserve">Continued increase in employment
- The change in the number of unemployed and in the unemployment rate for women, between February 2021 and February 2022 may be overestimated. This since unemployment was overestimated in February 2021 and underestimated in February 2022. The distribution among non-respondents might explain the possible underestimation in unemployment this month.
- Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
- The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. At the same time as the LFS February, these series are also published for quarters and years. Later this year further series will be published.
- In February 2022, there were 5 536 000 (±56 000) persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 586 000 (±46 000). The number of men was 2 950 000 (±43 000). The relative labour force participation rate was 73.7 (±0.7). Among women, it was 70.0 (±1.2) percent and among men, it was 77.2 (±1.1). Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 581 000 persons, corresponding to a labour force participation rate of 74.3.
- In February 2022, there were 5 101 000 (±52 000) employed persons aged 15-74, not seasonally adjusted, which is an increase of 151 000 compared to the corresponding month a year ago. There were 2 391 000 (±46 000) employed women, an increase of 90 000, and 2 710 000 (±44 000) employed men, an increase of 61 000. The employment rate increased by 2.0 percentage points to 67.9 (±0.7) percent. Among women, the employment rate was 64.7 (±1.2) percent, an increase of 2.4 percentage points. Among men, it was 70.9 (±1.2) percent, an increase of 1.6 percentage points. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 150 000 employed persons, corresponding to an employment rate of 68.6 percent. There were 553 000 (±46 000) people absent for the whole week in February 2022. Compared with previous months, smoothed and seasonally adjusted data shows an increase in the number of people absent for the whole week. The number amounted to 833 000.
- In February 2022, there were 4 555 000 (±59 000) employees, not seasonally adjusted. This is an increase of 118 000 compared with the corresponding month last year. Among women, there were 2 252 000 (±48 000) employees, an increase of 82 000. Among men, there were 2 303 000 (±49 000) employees. There were 3 903 000 (±64 000) permanent employees in the same period. Among women, there were 1 891 000 (±50 000) permanent employees, an increase of 67 000. The number of permanent employees among men was 2 011 000 (±51 000). There were 652 000 (±50 000) temporary employees. Among them, 361 000 (±38 000) were women and 292 000 (±34 000) were men. For seasonally adjusted and smoothed data, the number of employees was 4 630 000. The corresponding figure for permanent employees was 3 927 000 and for temporary employees 703 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, and in permanent employees as well as in temporary employees.
- The average number of hours worked in February 2022 amounted to 164.6 (±2.5) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data shows a decrease in the average number of hours worked per week compared to nearby months. The number amounted to 150.7 million.
- In February 2022, there were 435 000 (±36 000) unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 96 000 compared with the corresponding month last year. It corresponds to an unemployment rate of 7.9 (±0.6) percent, a decrease of 1.8 percentage points compared to February 2021. Among the unemployed persons, there were 195 000 (±28 000) unemployed women, which is a decrease of 68 000. The number of unemployed men amounted to 240 000 (±29 000). Among women, the unemployment rate was 7.5 (±1.0) percent, a decrease of 2.8 percentage points. Among men, the unemployment rate was 8.1 (±0.9). Among those who were unemployed, 160 000 (±22 000) had been unemployed for more than six months. There were 141 000 (±24 000) unemployed young people aged 15–24 years, corresponding to an unemployment rate of 24.2 (±3.5) percent. Among unemployed young people, 90 000 (±19 000) persons were full-time students. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In February 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 140 000, corresponding to an unemployment rate of 22.4 percent.
+          <x:t xml:space="preserve">Number of hours worked is increasing
+Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS home page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
+The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Later this year further series will be available.
+In April 2022, there were 5 609 000 persons aged 15–74 in the labour force, not seasonally adjusted, which is an increase of 78 000 persons compared to April 2021. The number of women in the labour force was 2 670 000, and the number of men was 2 939 000. The relative labour force participation rate amounted to 74.6 percent. Among women, it was 72.2 percent and among men, it was 76.9 percent.
+Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 598 000 persons, corresponding to a labour force participation rate of 74.4 percent.
+In April 2022, there were 5 151 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 141 000 compared to the corresponding month a year ago. There were 2 429 000 employed women and 2 722 000 employed men, an increase of 96 000. The employment rate increased by 1.7 percentage points to 68.5 percent. Among women, the employment rate was 65.7 percent, and among men it was 71.2 percent, an increase of 2.3 percentage points.
+Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 175 000 employed persons, corresponding to an employment rate of 68.8 percent.
+In April 2022, there were 4 649 000 employees, not seasonally adjusted. This is an increase of 126 000 compared with the corresponding month last year. Among women, there were 2 265 000 employees. Among men, there were 2 384 000 employees, an increase of 115 000. There were 3 945 000 permanent employees in the same period, an increase of 141 000. Among women, there were 1 865 000 permanent employees and the number of permanent employed men increased by 121 000 to 2 079 000. There were 705 000 temporary employees. Among them, 400 000 were women and 305 000 were men.
+For seasonally adjusted and smoothed data, the number of employees was 4 656 000. The corresponding figure for permanent employees was 3 935 000 and for temporary employees 721 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
+The average number of hours worked in April 2022 amounted to 154.5 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 2.9 percent compared with April 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 48.3 percent compared with April 2021.
+According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 153.6 million.
+In April 2022, there were 458 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 63 000 compared with April 2021. It corresponds to an unemployment rate of 8.2 percent, a decrease of 1.2 percentage points. Among unemployed persons, there were 241 000 women, corresponding to an unemployment rate of 9.0 percent. The number of unemployed men amounted to 217 000, a decrease of 59 000. Among men, the unemployment rate was 7.4 percent, a decrease of 2.1 percentage units.
+There were 170 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.0 percent, which is a decrease of 5.2 percentage points compared to April 2021. Among unemployed young people, 126 000 persons were full-time students.
+Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In April 2022 there were 423 000 unemployed persons, which corresponds to an unemployment rate of 7.6 percent.
+Among young people aged 15–24, seasonally adjusted and smoothed data also shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 142 000, corresponding to an unemployment rate of 22.2 percent.
 </x:t>
         </x:r>
       </x:text>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Labour Force Surveys (LFS), population aged 15-74. Non seasonally adjusted estimates by economic indicator and month</x:t>
   </x:si>
@@ -382,6 +388,12 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
     <x:t>Unemployment rate, percent</x:t>
   </x:si>
   <x:si>
@@ -391,24 +403,30 @@
     <x:t>month:</x:t>
   </x:si>
   <x:si>
-    <x:t>2022M02:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Continued increase in employment
- The change in the number of unemployed and in the unemployment rate for women, between February 2021 and February 2022 may be overestimated. This since unemployment was overestimated in February 2021 and underestimated in February 2022. The distribution among non-respondents might explain the possible underestimation in unemployment this month.
- Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS product page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
- The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. At the same time as the LFS February, these series are also published for quarters and years. Later this year further series will be published.
- In February 2022, there were 5 536 000 (±56 000) persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 586 000 (±46 000). The number of men was 2 950 000 (±43 000). The relative labour force participation rate was 73.7 (±0.7). Among women, it was 70.0 (±1.2) percent and among men, it was 77.2 (±1.1). Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 581 000 persons, corresponding to a labour force participation rate of 74.3.
- In February 2022, there were 5 101 000 (±52 000) employed persons aged 15-74, not seasonally adjusted, which is an increase of 151 000 compared to the corresponding month a year ago. There were 2 391 000 (±46 000) employed women, an increase of 90 000, and 2 710 000 (±44 000) employed men, an increase of 61 000. The employment rate increased by 2.0 percentage points to 67.9 (±0.7) percent. Among women, the employment rate was 64.7 (±1.2) percent, an increase of 2.4 percentage points. Among men, it was 70.9 (±1.2) percent, an increase of 1.6 percentage points. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 150 000 employed persons, corresponding to an employment rate of 68.6 percent. There were 553 000 (±46 000) people absent for the whole week in February 2022. Compared with previous months, smoothed and seasonally adjusted data shows an increase in the number of people absent for the whole week. The number amounted to 833 000.
- In February 2022, there were 4 555 000 (±59 000) employees, not seasonally adjusted. This is an increase of 118 000 compared with the corresponding month last year. Among women, there were 2 252 000 (±48 000) employees, an increase of 82 000. Among men, there were 2 303 000 (±49 000) employees. There were 3 903 000 (±64 000) permanent employees in the same period. Among women, there were 1 891 000 (±50 000) permanent employees, an increase of 67 000. The number of permanent employees among men was 2 011 000 (±51 000). There were 652 000 (±50 000) temporary employees. Among them, 361 000 (±38 000) were women and 292 000 (±34 000) were men. For seasonally adjusted and smoothed data, the number of employees was 4 630 000. The corresponding figure for permanent employees was 3 927 000 and for temporary employees 703 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, and in permanent employees as well as in temporary employees.
- The average number of hours worked in February 2022 amounted to 164.6 (±2.5) million per week, not seasonally adjusted. Seasonally adjusted and smoothed data shows a decrease in the average number of hours worked per week compared to nearby months. The number amounted to 150.7 million.
- In February 2022, there were 435 000 (±36 000) unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 96 000 compared with the corresponding month last year. It corresponds to an unemployment rate of 7.9 (±0.6) percent, a decrease of 1.8 percentage points compared to February 2021. Among the unemployed persons, there were 195 000 (±28 000) unemployed women, which is a decrease of 68 000. The number of unemployed men amounted to 240 000 (±29 000). Among women, the unemployment rate was 7.5 (±1.0) percent, a decrease of 2.8 percentage points. Among men, the unemployment rate was 8.1 (±0.9). Among those who were unemployed, 160 000 (±22 000) had been unemployed for more than six months. There were 141 000 (±24 000) unemployed young people aged 15–24 years, corresponding to an unemployment rate of 24.2 (±3.5) percent. Among unemployed young people, 90 000 (±19 000) persons were full-time students. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In February 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 140 000, corresponding to an unemployment rate of 22.4 percent.</x:t>
+    <x:t>2022M04:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number of hours worked is increasing
+Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS home page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
+The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Later this year further series will be available.
+In April 2022, there were 5 609 000 persons aged 15–74 in the labour force, not seasonally adjusted, which is an increase of 78 000 persons compared to April 2021. The number of women in the labour force was 2 670 000, and the number of men was 2 939 000. The relative labour force participation rate amounted to 74.6 percent. Among women, it was 72.2 percent and among men, it was 76.9 percent.
+Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 598 000 persons, corresponding to a labour force participation rate of 74.4 percent.
+In April 2022, there were 5 151 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 141 000 compared to the corresponding month a year ago. There were 2 429 000 employed women and 2 722 000 employed men, an increase of 96 000. The employment rate increased by 1.7 percentage points to 68.5 percent. Among women, the employment rate was 65.7 percent, and among men it was 71.2 percent, an increase of 2.3 percentage points.
+Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 175 000 employed persons, corresponding to an employment rate of 68.8 percent.
+In April 2022, there were 4 649 000 employees, not seasonally adjusted. This is an increase of 126 000 compared with the corresponding month last year. Among women, there were 2 265 000 employees. Among men, there were 2 384 000 employees, an increase of 115 000. There were 3 945 000 permanent employees in the same period, an increase of 141 000. Among women, there were 1 865 000 permanent employees and the number of permanent employed men increased by 121 000 to 2 079 000. There were 705 000 temporary employees. Among them, 400 000 were women and 305 000 were men.
+For seasonally adjusted and smoothed data, the number of employees was 4 656 000. The corresponding figure for permanent employees was 3 935 000 and for temporary employees 721 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
+The average number of hours worked in April 2022 amounted to 154.5 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 2.9 percent compared with April 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 48.3 percent compared with April 2021.
+According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 153.6 million.
+In April 2022, there were 458 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 63 000 compared with April 2021. It corresponds to an unemployment rate of 8.2 percent, a decrease of 1.2 percentage points. Among unemployed persons, there were 241 000 women, corresponding to an unemployment rate of 9.0 percent. The number of unemployed men amounted to 217 000, a decrease of 59 000. Among men, the unemployment rate was 7.4 percent, a decrease of 2.1 percentage units.
+There were 170 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.0 percent, which is a decrease of 5.2 percentage points compared to April 2021. Among unemployed young people, 126 000 persons were full-time students.
+Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In April 2022 there were 423 000 unemployed persons, which corresponds to an unemployment rate of 7.6 percent.
+Among young people aged 15–24, seasonally adjusted and smoothed data also shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 142 000, corresponding to an unemployment rate of 22.2 percent.</x:t>
   </x:si>
   <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220318 08:00</x:t>
+    <x:t>20220525 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -852,21 +870,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DJ45"/>
+  <x:dimension ref="A1:DL45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="114" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="116" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:114">
+    <x:row r="1" spans="1:116">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:114">
+    <x:row r="3" spans="1:116">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1197,10 +1215,16 @@
       <x:c r="DG3" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:114">
+      <x:c r="DH3" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="DI3" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:116">
       <x:c r="A4" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>8.6</x:v>
@@ -1532,126 +1556,132 @@
       <x:c r="DG4" s="3" t="n">
         <x:v>7.9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:114">
+      <x:c r="DH4" s="3" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="DI4" s="3" t="n">
+        <x:v>8.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:116">
       <x:c r="A6" s="4" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:114">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:116">
       <x:c r="A7" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:114">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:116">
       <x:c r="A8" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:114">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:116">
       <x:c r="A9" s="4" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:114">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:116">
       <x:c r="A12" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:114">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:116">
       <x:c r="A13" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:114">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:116">
       <x:c r="A15" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:114">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:116">
       <x:c r="A16" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:114">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:116">
       <x:c r="A18" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:114">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:116">
       <x:c r="A19" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:114">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:116">
       <x:c r="A20" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:114">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:116">
       <x:c r="A21" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:114">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:116">
       <x:c r="A26" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:114">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:116">
       <x:c r="A27" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:114">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:116">
       <x:c r="A29" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:114">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:116">
       <x:c r="A30" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:114">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:116">
       <x:c r="A32" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:114">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:116">
       <x:c r="A33" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:114">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:116">
       <x:c r="A39" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:114">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:116">
       <x:c r="A41" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:114">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:116">
       <x:c r="A42" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:114">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:116">
       <x:c r="A44" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:114">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:116">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A6:DG6"/>
-    <x:mergeCell ref="A9:DG9"/>
+    <x:mergeCell ref="A6:DI6"/>
+    <x:mergeCell ref="A9:DI9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/INTLINE/data/144/SCB/SnabbStatAM0401.xlsx
+++ b/INTLINE/data/144/SCB/SnabbStatAM0401.xlsx
@@ -19,7 +19,7 @@
     <x:author>www.statistikdatabasen.scb.se</x:author>
   </x:authors>
   <x:commentList>
-    <x:comment ref="DI3" authorId="0">
+    <x:comment ref="DJ3" authorId="0">
       <x:text>
         <x:r>
           <x:rPr>
@@ -29,21 +29,17 @@
             <x:rFont val="Tahoma"/>
             <x:family val="2"/>
           </x:rPr>
-          <x:t xml:space="preserve">Number of hours worked is increasing
+          <x:t xml:space="preserve">Employment is increasing among foreign born
 Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS home page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
-The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Later this year further series will be available.
-In April 2022, there were 5 609 000 persons aged 15–74 in the labour force, not seasonally adjusted, which is an increase of 78 000 persons compared to April 2021. The number of women in the labour force was 2 670 000, and the number of men was 2 939 000. The relative labour force participation rate amounted to 74.6 percent. Among women, it was 72.2 percent and among men, it was 76.9 percent.
-Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 598 000 persons, corresponding to a labour force participation rate of 74.4 percent.
-In April 2022, there were 5 151 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 141 000 compared to the corresponding month a year ago. There were 2 429 000 employed women and 2 722 000 employed men, an increase of 96 000. The employment rate increased by 1.7 percentage points to 68.5 percent. Among women, the employment rate was 65.7 percent, and among men it was 71.2 percent, an increase of 2.3 percentage points.
-Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 175 000 employed persons, corresponding to an employment rate of 68.8 percent.
-In April 2022, there were 4 649 000 employees, not seasonally adjusted. This is an increase of 126 000 compared with the corresponding month last year. Among women, there were 2 265 000 employees. Among men, there were 2 384 000 employees, an increase of 115 000. There were 3 945 000 permanent employees in the same period, an increase of 141 000. Among women, there were 1 865 000 permanent employees and the number of permanent employed men increased by 121 000 to 2 079 000. There were 705 000 temporary employees. Among them, 400 000 were women and 305 000 were men.
-For seasonally adjusted and smoothed data, the number of employees was 4 656 000. The corresponding figure for permanent employees was 3 935 000 and for temporary employees 721 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
-The average number of hours worked in April 2022 amounted to 154.5 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 2.9 percent compared with April 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 48.3 percent compared with April 2021.
-According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 153.6 million.
-In April 2022, there were 458 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 63 000 compared with April 2021. It corresponds to an unemployment rate of 8.2 percent, a decrease of 1.2 percentage points. Among unemployed persons, there were 241 000 women, corresponding to an unemployment rate of 9.0 percent. The number of unemployed men amounted to 217 000, a decrease of 59 000. Among men, the unemployment rate was 7.4 percent, a decrease of 2.1 percentage units.
-There were 170 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.0 percent, which is a decrease of 5.2 percentage points compared to April 2021. Among unemployed young people, 126 000 persons were full-time students.
-Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In April 2022 there were 423 000 unemployed persons, which corresponds to an unemployment rate of 7.6 percent.
-Among young people aged 15–24, seasonally adjusted and smoothed data also shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 142 000, corresponding to an unemployment rate of 22.2 percent.
+The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Further linked series will be available with this publication.
+In May 2022, there were 5 657 000 persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 665 000, and the number of men was 2 992 000. The relative labour force participation rate amounted to 75.1 percent. Among women, it was 72.0 percent and among men, it was 78.0 percent. Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 615 000 persons, corresponding to a labour force participation rate of 74.6 percent.
+In May 2022, there were 5 175 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 124 000 compared to the corresponding month a year ago. There were 2 457 000 employed women, an increase of 73 000, and 2 719 000 employed men. The employment rate increased by 1.5 percentage points to 68.7 percent. Among women, the employment rate increased by 1.9 percentage point to 66.4 percent, and among men it was 70.9 percent. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 185 000 employed persons, corresponding to an employment rate of 68.8 percent.
+The number of employed foreign born persons was 1 159 000, an increase of 84 000 compared to May 2021. Employment among foreign born women increased by 62 000 to 563 000, and the number of employed foreign born men amounted to 596 000. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent month for foreign born persons. There were 1 156 000 employed foreign born persons, corresponding to an employment rate of 63.7 percent.
+The number of employed young people aged 15-24 increased by 53 000 to 492 000. It corresponds to an employment rate of 42.3 percent, an increase of 4.2 percentage points. Among young people aged 15–24, seasonally adjusted and smoothed data shows an increase in both the number and share of employed persons compared with recent months. The number of employed young people amounted to 508 000, corresponding to an employment rate of 43.7 percent.
+In May 2022, there were 4 671 000 employees, not seasonally adjusted. This is an increase of 117 000 compared with the corresponding month last year. Among women, there were 2 321 000 employees, an increase of 67 000. Among men, there were 2 349 000 employees. There were 3 940 000 permanent employees in the same period. Among women, there were 1 906 000 permanent employees, and the number of permanent employed men was 2 035 000. There were 730 000 temporary employees. Among them, 416 000 were women and 315 000 were men. For seasonally adjusted and smoothed data, the number of employees was 4 677 000. The corresponding figure for permanent employees was 3 943 000 and for temporary employees 734 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
+The average number of hours worked in May 2022 amounted to 164.8 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 3.5 percent compared with May 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 76.9 percent compared with May 2021. In Human health and social work activities the number of hours worked, calendar-adjusted, increased by 9.7 percent. According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 155.0 million.
+In May 2022, there were 482 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 64 000 compared with May 2021. It corresponds to an unemployment rate of 8.5 percent, a decrease of 1.3 percentage points. The number of unemployed women decreased by 55 000 to 208 000, this corresponds to an unemployment rate of 7.8 percent, a decrease of 2.2 percentage points. The number of unemployed men amounted to 274 000, corresponding to an unemployment rate of 9.1 percent. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In May 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent.
+There were 176 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.3 percent. Among unemployed young people, 140 000 persons were full-time students. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in the share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 143 000, corresponding to an unemployment rate of 22.0 percent.
 </x:t>
         </x:r>
       </x:text>
@@ -53,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Labour Force Surveys (LFS), population aged 15-74. Non seasonally adjusted estimates by economic indicator and month</x:t>
   </x:si>
@@ -394,6 +390,9 @@
     <x:t>2022M04</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>Unemployment rate, percent</x:t>
   </x:si>
   <x:si>
@@ -403,30 +402,26 @@
     <x:t>month:</x:t>
   </x:si>
   <x:si>
-    <x:t>2022M04:</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number of hours worked is increasing
+    <x:t>2022M05:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Employment is increasing among foreign born
 Since 1 January 2021, the Swedish LFS is in compliance with the new EU framework regulation on social statistics (Regulation (EU) 2019/1700). More information on the alignment to the regulation is available on the LFS home page under “Information on the introduction of the new 2021 framework regulation in the LFS” (scb.se).
-The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Later this year further series will be available.
-In April 2022, there were 5 609 000 persons aged 15–74 in the labour force, not seasonally adjusted, which is an increase of 78 000 persons compared to April 2021. The number of women in the labour force was 2 670 000, and the number of men was 2 939 000. The relative labour force participation rate amounted to 74.6 percent. Among women, it was 72.2 percent and among men, it was 76.9 percent.
-Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 598 000 persons, corresponding to a labour force participation rate of 74.4 percent.
-In April 2022, there were 5 151 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 141 000 compared to the corresponding month a year ago. There were 2 429 000 employed women and 2 722 000 employed men, an increase of 96 000. The employment rate increased by 1.7 percentage points to 68.5 percent. Among women, the employment rate was 65.7 percent, and among men it was 71.2 percent, an increase of 2.3 percentage points.
-Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 175 000 employed persons, corresponding to an employment rate of 68.8 percent.
-In April 2022, there were 4 649 000 employees, not seasonally adjusted. This is an increase of 126 000 compared with the corresponding month last year. Among women, there were 2 265 000 employees. Among men, there were 2 384 000 employees, an increase of 115 000. There were 3 945 000 permanent employees in the same period, an increase of 141 000. Among women, there were 1 865 000 permanent employees and the number of permanent employed men increased by 121 000 to 2 079 000. There were 705 000 temporary employees. Among them, 400 000 were women and 305 000 were men.
-For seasonally adjusted and smoothed data, the number of employees was 4 656 000. The corresponding figure for permanent employees was 3 935 000 and for temporary employees 721 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
-The average number of hours worked in April 2022 amounted to 154.5 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 2.9 percent compared with April 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 48.3 percent compared with April 2021.
-According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 153.6 million.
-In April 2022, there were 458 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 63 000 compared with April 2021. It corresponds to an unemployment rate of 8.2 percent, a decrease of 1.2 percentage points. Among unemployed persons, there were 241 000 women, corresponding to an unemployment rate of 9.0 percent. The number of unemployed men amounted to 217 000, a decrease of 59 000. Among men, the unemployment rate was 7.4 percent, a decrease of 2.1 percentage units.
-There were 170 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.0 percent, which is a decrease of 5.2 percentage points compared to April 2021. Among unemployed young people, 126 000 persons were full-time students.
-Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In April 2022 there were 423 000 unemployed persons, which corresponds to an unemployment rate of 7.6 percent.
-Among young people aged 15–24, seasonally adjusted and smoothed data also shows a decrease in both the number and share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 142 000, corresponding to an unemployment rate of 22.2 percent.</x:t>
+The changes have caused breaks in the LFS time series. To make the series comparable in time, a selection of series has been linked backwards to 2005 according to the new practise. Further linked series will be available with this publication.
+In May 2022, there were 5 657 000 persons aged 15–74 in the labour force, not seasonally adjusted. The number of women in the labour force was 2 665 000, and the number of men was 2 992 000. The relative labour force participation rate amounted to 75.1 percent. Among women, it was 72.0 percent and among men, it was 78.0 percent. Seasonally adjusted and smoothed data shows an increase in both the number and share of persons in the labour force compared with nearby months. The number of persons in the labour force amounted to 5 615 000 persons, corresponding to a labour force participation rate of 74.6 percent.
+In May 2022, there were 5 175 000 employed persons aged 15-74, not seasonally adjusted, which is an increase of 124 000 compared to the corresponding month a year ago. There were 2 457 000 employed women, an increase of 73 000, and 2 719 000 employed men. The employment rate increased by 1.5 percentage points to 68.7 percent. Among women, the employment rate increased by 1.9 percentage point to 66.4 percent, and among men it was 70.9 percent. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent months. There were 5 185 000 employed persons, corresponding to an employment rate of 68.8 percent.
+The number of employed foreign born persons was 1 159 000, an increase of 84 000 compared to May 2021. Employment among foreign born women increased by 62 000 to 563 000, and the number of employed foreign born men amounted to 596 000. Smoothed and seasonally adjusted data indicates an increase in both the number and share of employed persons compared with recent month for foreign born persons. There were 1 156 000 employed foreign born persons, corresponding to an employment rate of 63.7 percent.
+The number of employed young people aged 15-24 increased by 53 000 to 492 000. It corresponds to an employment rate of 42.3 percent, an increase of 4.2 percentage points. Among young people aged 15–24, seasonally adjusted and smoothed data shows an increase in both the number and share of employed persons compared with recent months. The number of employed young people amounted to 508 000, corresponding to an employment rate of 43.7 percent.
+In May 2022, there were 4 671 000 employees, not seasonally adjusted. This is an increase of 117 000 compared with the corresponding month last year. Among women, there were 2 321 000 employees, an increase of 67 000. Among men, there were 2 349 000 employees. There were 3 940 000 permanent employees in the same period. Among women, there were 1 906 000 permanent employees, and the number of permanent employed men was 2 035 000. There were 730 000 temporary employees. Among them, 416 000 were women and 315 000 were men. For seasonally adjusted and smoothed data, the number of employees was 4 677 000. The corresponding figure for permanent employees was 3 943 000 and for temporary employees 734 000. Compared with previous months, seasonally adjusted and smoothed data shows an increase in the number of employees, in permanent employees and in temporary employees.
+The average number of hours worked in May 2022 amounted to 164.8 million per week, not seasonally adjusted. In calendar-adjusted figures, this corresponds to an increase of 3.5 percent compared with May 2021. The largest increase was in Accommodation and food services, where the number of hours worked, calendar-adjusted, increased by 76.9 percent compared with May 2021. In Human health and social work activities the number of hours worked, calendar-adjusted, increased by 9.7 percent. According to seasonally adjusted and smoothed data there was an increase in the average number of hours worked compared to nearby months, which amounted to amounted to 155.0 million.
+In May 2022, there were 482 000 unemployed persons aged 15–74 years, not seasonally adjusted. This is a decrease of 64 000 compared with May 2021. It corresponds to an unemployment rate of 8.5 percent, a decrease of 1.3 percentage points. The number of unemployed women decreased by 55 000 to 208 000, this corresponds to an unemployment rate of 7.8 percent, a decrease of 2.2 percentage points. The number of unemployed men amounted to 274 000, corresponding to an unemployment rate of 9.1 percent. Among persons aged 15–74 years, seasonally adjusted and smoothed data shows a decrease in both the number and share of unemployed persons compared to nearby months. In May 2022 there were 430 000 unemployed persons, which corresponds to an unemployment rate of 7.7 percent.
+There were 176 000 unemployed young people aged 15–24 years, corresponding to an unemployment rate of 26.3 percent. Among unemployed young people, 140 000 persons were full-time students. Among young people aged 15–24, seasonally adjusted and smoothed data shows a decrease in the share of unemployed persons compared to nearby months. The number of unemployed young people amounted to 143 000, corresponding to an unemployment rate of 22.0 percent.</x:t>
   </x:si>
   <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220525 08:00</x:t>
+    <x:t>20220622 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -870,21 +865,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:DL45"/>
+  <x:dimension ref="A1:DM45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="116" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="117" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:116">
+    <x:row r="1" spans="1:117">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:116">
+    <x:row r="3" spans="1:117">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1221,10 +1216,13 @@
       <x:c r="DI3" s="2" t="s">
         <x:v>112</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:116">
+      <x:c r="DJ3" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:117">
       <x:c r="A4" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
         <x:v>8.6</x:v>
@@ -1236,7 +1234,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E4" s="3" t="n">
-        <x:v>8.9</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="3" t="n">
         <x:v>8.4</x:v>
@@ -1341,10 +1339,10 @@
         <x:v>7.8</x:v>
       </x:c>
       <x:c r="AN4" s="3" t="n">
-        <x:v>7.9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="AO4" s="3" t="n">
-        <x:v>7.4</x:v>
+        <x:v>7.5</x:v>
       </x:c>
       <x:c r="AP4" s="3" t="n">
         <x:v>7.8</x:v>
@@ -1359,7 +1357,7 @@
         <x:v>6.7</x:v>
       </x:c>
       <x:c r="AT4" s="3" t="n">
-        <x:v>6.2</x:v>
+        <x:v>6.3</x:v>
       </x:c>
       <x:c r="AU4" s="3" t="n">
         <x:v>6.6</x:v>
@@ -1368,7 +1366,7 @@
         <x:v>6.4</x:v>
       </x:c>
       <x:c r="AW4" s="3" t="n">
-        <x:v>6.6</x:v>
+        <x:v>6.7</x:v>
       </x:c>
       <x:c r="AX4" s="3" t="n">
         <x:v>7.5</x:v>
@@ -1422,7 +1420,7 @@
         <x:v>6.7</x:v>
       </x:c>
       <x:c r="BO4" s="3" t="n">
-        <x:v>7.3</x:v>
+        <x:v>7.4</x:v>
       </x:c>
       <x:c r="BP4" s="3" t="n">
         <x:v>6.3</x:v>
@@ -1443,7 +1441,7 @@
         <x:v>6.3</x:v>
       </x:c>
       <x:c r="BV4" s="3" t="n">
-        <x:v>6.7</x:v>
+        <x:v>6.8</x:v>
       </x:c>
       <x:c r="BW4" s="3" t="n">
         <x:v>7.5</x:v>
@@ -1458,7 +1456,7 @@
         <x:v>7.3</x:v>
       </x:c>
       <x:c r="CA4" s="3" t="n">
-        <x:v>7.3</x:v>
+        <x:v>7.4</x:v>
       </x:c>
       <x:c r="CB4" s="3" t="n">
         <x:v>7</x:v>
@@ -1476,10 +1474,10 @@
         <x:v>7.1</x:v>
       </x:c>
       <x:c r="CG4" s="3" t="n">
-        <x:v>6.2</x:v>
+        <x:v>6.3</x:v>
       </x:c>
       <x:c r="CH4" s="3" t="n">
-        <x:v>7.7</x:v>
+        <x:v>7.8</x:v>
       </x:c>
       <x:c r="CI4" s="3" t="n">
         <x:v>8.4</x:v>
@@ -1562,126 +1560,129 @@
       <x:c r="DI4" s="3" t="n">
         <x:v>8.2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:116">
+      <x:c r="DJ4" s="3" t="n">
+        <x:v>8.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:117">
       <x:c r="A6" s="4" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:116">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:117">
       <x:c r="A7" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:116">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:117">
       <x:c r="A8" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:116">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:117">
       <x:c r="A9" s="4" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:116">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:117">
       <x:c r="A12" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:116">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:117">
       <x:c r="A13" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:116">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:117">
       <x:c r="A15" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:116">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:117">
       <x:c r="A16" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:116">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:117">
       <x:c r="A18" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:116">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:117">
       <x:c r="A19" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:116">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:117">
       <x:c r="A20" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:116">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:117">
       <x:c r="A21" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:116">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:117">
       <x:c r="A26" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:116">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:117">
       <x:c r="A27" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:116">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:117">
       <x:c r="A29" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:116">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:117">
       <x:c r="A30" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:116">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:117">
       <x:c r="A32" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:116">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:117">
       <x:c r="A33" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:116">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:117">
       <x:c r="A39" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:116">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:117">
       <x:c r="A41" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:116">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:117">
       <x:c r="A42" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:116">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:117">
       <x:c r="A44" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:116">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:117">
       <x:c r="A45" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A6:DI6"/>
-    <x:mergeCell ref="A9:DI9"/>
+    <x:mergeCell ref="A6:DJ6"/>
+    <x:mergeCell ref="A9:DJ9"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
